--- a/doors-detector/results/house15_experimentk_ordered_CriterionType.MIN_CriterionSorting.GROWING.xlsx
+++ b/doors-detector/results/house15_experimentk_ordered_CriterionType.MIN_CriterionSorting.GROWING.xlsx
@@ -495,16 +495,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.8025317004317748</v>
+        <v>0.795016842128802</v>
       </c>
       <c r="F2" t="n">
         <v>1070</v>
       </c>
       <c r="G2" t="n">
-        <v>913</v>
+        <v>906</v>
       </c>
       <c r="H2" t="n">
-        <v>157</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3">
@@ -527,16 +527,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.3269607526076957</v>
+        <v>0.3789114584887671</v>
       </c>
       <c r="F3" t="n">
         <v>59</v>
       </c>
       <c r="G3" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H3" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4">
@@ -559,16 +559,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.4822697111133049</v>
+        <v>0.4570942208214507</v>
       </c>
       <c r="F4" t="n">
         <v>240</v>
       </c>
       <c r="G4" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="H4" t="n">
-        <v>282</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5">
@@ -591,16 +591,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.7288984381573815</v>
+        <v>0.7417561089440663</v>
       </c>
       <c r="F5" t="n">
         <v>1070</v>
       </c>
       <c r="G5" t="n">
-        <v>868</v>
+        <v>874</v>
       </c>
       <c r="H5" t="n">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6">
@@ -623,16 +623,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.39664514657481</v>
+        <v>0.4744035826639382</v>
       </c>
       <c r="F6" t="n">
         <v>59</v>
       </c>
       <c r="G6" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H6" t="n">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.6107999936152346</v>
+        <v>0.6173744423711002</v>
       </c>
       <c r="F7" t="n">
         <v>240</v>
       </c>
       <c r="G7" t="n">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H7" t="n">
-        <v>350</v>
+        <v>315</v>
       </c>
     </row>
     <row r="8">
@@ -687,16 +687,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.7596008947664463</v>
+        <v>0.7523578305184222</v>
       </c>
       <c r="F8" t="n">
         <v>1070</v>
       </c>
       <c r="G8" t="n">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="H8" t="n">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9">
@@ -719,16 +719,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.4879687206057157</v>
+        <v>0.5870691448432941</v>
       </c>
       <c r="F9" t="n">
         <v>59</v>
       </c>
       <c r="G9" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H9" t="n">
-        <v>72</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10">
@@ -751,16 +751,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.6019383620984502</v>
+        <v>0.6299381349755716</v>
       </c>
       <c r="F10" t="n">
         <v>240</v>
       </c>
       <c r="G10" t="n">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="H10" t="n">
-        <v>299</v>
+        <v>316</v>
       </c>
     </row>
     <row r="11">
@@ -783,16 +783,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.7327053410423626</v>
+        <v>0.8118928152144971</v>
       </c>
       <c r="F11" t="n">
         <v>1070</v>
       </c>
       <c r="G11" t="n">
-        <v>863</v>
+        <v>919</v>
       </c>
       <c r="H11" t="n">
-        <v>207</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12">
@@ -815,16 +815,16 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.5411670467714883</v>
+        <v>0.6533809871962205</v>
       </c>
       <c r="F12" t="n">
         <v>59</v>
       </c>
       <c r="G12" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H12" t="n">
-        <v>78</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13">
@@ -847,16 +847,16 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.6106287755030314</v>
+        <v>0.7010352709801455</v>
       </c>
       <c r="F13" t="n">
         <v>240</v>
       </c>
       <c r="G13" t="n">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="H13" t="n">
-        <v>330</v>
+        <v>266</v>
       </c>
     </row>
     <row r="14">
@@ -879,16 +879,16 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.7738728051468987</v>
+        <v>0.7733518406445626</v>
       </c>
       <c r="F14" t="n">
         <v>1070</v>
       </c>
       <c r="G14" t="n">
-        <v>890</v>
+        <v>893</v>
       </c>
       <c r="H14" t="n">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15">
@@ -911,16 +911,16 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.6498534431716382</v>
+        <v>0.6955252553946533</v>
       </c>
       <c r="F15" t="n">
         <v>59</v>
       </c>
       <c r="G15" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H15" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16">
@@ -943,16 +943,16 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.6766264537237103</v>
+        <v>0.7074585116888976</v>
       </c>
       <c r="F16" t="n">
         <v>240</v>
       </c>
       <c r="G16" t="n">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="H16" t="n">
-        <v>350</v>
+        <v>322</v>
       </c>
     </row>
     <row r="17">
@@ -975,16 +975,16 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.8245035575411306</v>
+        <v>0.7495848466767463</v>
       </c>
       <c r="F17" t="n">
         <v>1070</v>
       </c>
       <c r="G17" t="n">
-        <v>927</v>
+        <v>886</v>
       </c>
       <c r="H17" t="n">
-        <v>143</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18">
@@ -1007,16 +1007,16 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.7161952529424852</v>
+        <v>0.7325104993294566</v>
       </c>
       <c r="F18" t="n">
         <v>59</v>
       </c>
       <c r="G18" t="n">
+        <v>48</v>
+      </c>
+      <c r="H18" t="n">
         <v>47</v>
-      </c>
-      <c r="H18" t="n">
-        <v>44</v>
       </c>
     </row>
     <row r="19">
@@ -1039,16 +1039,16 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.7128485615868855</v>
+        <v>0.716251081047065</v>
       </c>
       <c r="F19" t="n">
         <v>240</v>
       </c>
       <c r="G19" t="n">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="H19" t="n">
-        <v>323</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
